--- a/Excel to json convertor/sample-format/dataElementsPost.xlsx
+++ b/Excel to json convertor/sample-format/dataElementsPost.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mithilesh Thakur\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\gitHub_source_code\excel_to_Json_Converter_angularJS\sample-format\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{744EBF52-0006-4F05-BA2C-023F30FBA957}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E5F6B1B-65B3-4F1F-8011-30B51C197146}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1073" uniqueCount="413">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1074" uniqueCount="414">
   <si>
     <t>name</t>
   </si>
@@ -1270,6 +1270,9 @@
   </si>
   <si>
     <t>kguWskGWWQ3</t>
+  </si>
+  <si>
+    <t>zeroIsSignificant</t>
   </si>
 </sst>
 </file>
@@ -1338,7 +1341,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -1348,6 +1351,9 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1663,10 +1669,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E6B5FAB-DF4A-42DC-8643-A674828EC12D}">
-  <dimension ref="A1:I416"/>
+  <dimension ref="A1:J416"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -1678,9 +1684,10 @@
     <col min="6" max="6" width="13.6328125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.36328125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.54296875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.90625" style="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="13.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -1708,8 +1715,11 @@
       <c r="I1" s="4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" ht="14.5" x14ac:dyDescent="0.25">
+      <c r="J1" s="8" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>280</v>
       </c>
@@ -1735,8 +1745,11 @@
       <c r="I2" s="5" t="s">
         <v>279</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" ht="14.5" x14ac:dyDescent="0.25">
+      <c r="J2" s="8" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>281</v>
       </c>
@@ -1761,8 +1774,11 @@
       <c r="I3" s="5" t="s">
         <v>279</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" ht="14.5" x14ac:dyDescent="0.25">
+      <c r="J3" s="8" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>282</v>
       </c>
@@ -1787,8 +1803,11 @@
       <c r="I4" s="5" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" ht="14.5" x14ac:dyDescent="0.25">
+      <c r="J4" s="8" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>283</v>
       </c>
@@ -1814,7 +1833,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>284</v>
       </c>
@@ -1840,7 +1859,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>285</v>
       </c>
@@ -1866,7 +1885,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>286</v>
       </c>
@@ -1892,7 +1911,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>287</v>
       </c>
@@ -1918,7 +1937,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>288</v>
       </c>
@@ -1944,7 +1963,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>289</v>
       </c>
@@ -1970,7 +1989,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>290</v>
       </c>
@@ -1996,7 +2015,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>291</v>
       </c>
@@ -2022,7 +2041,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
         <v>292</v>
       </c>
@@ -2048,7 +2067,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>293</v>
       </c>
@@ -2074,7 +2093,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
         <v>294</v>
       </c>
@@ -6585,15 +6604,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010064994C001712374395B345EB88ED991F" ma:contentTypeVersion="9" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="8c1a62579524e26006c6d5335831b55c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="f9770305-a86c-4dd4-a8e3-5283c3e6bf99" xmlns:ns3="3f48127a-ff27-4c8f-88c3-e54b29f41588" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="658091719f3253a39288b5ed2add5a7b" ns2:_="" ns3:_="">
     <xsd:import namespace="f9770305-a86c-4dd4-a8e3-5283c3e6bf99"/>
@@ -6790,6 +6800,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -6797,14 +6816,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{18A4371F-7DC5-4CF4-A869-E47776CCD6EB}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E76993AC-6818-4630-B1D6-F654BE5E03B8}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -6823,6 +6834,14 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{18A4371F-7DC5-4CF4-A869-E47776CCD6EB}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ACBAC26C-ABD4-4796-8551-545E34A88729}">
   <ds:schemaRefs>
